--- a/search-and-rescue-data.xlsx
+++ b/search-and-rescue-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://syddanskuni-my.sharepoint.com/personal/paand22_student_sdu_dk/Documents/Kandidat-uddannelsen/Semester 1/Embodied AI/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9FF07D90-8A15-DD40-B302-C789E8418C2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="23" documentId="8_{9FF07D90-8A15-DD40-B302-C789E8418C2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C4EB4B41-C22F-8542-8D15-8CB8034C82A7}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21880" activeTab="1" xr2:uid="{3B429D3A-EB2F-A445-87C7-E08B16BA06FE}"/>
+    <workbookView xWindow="17920" yWindow="500" windowWidth="17920" windowHeight="21880" xr2:uid="{3B429D3A-EB2F-A445-87C7-E08B16BA06FE}"/>
   </bookViews>
   <sheets>
     <sheet name="dirty wheel" sheetId="1" r:id="rId1"/>
@@ -38,26 +38,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="49">
   <si>
     <t>Completed Run</t>
   </si>
   <si>
-    <t>0.15</t>
-  </si>
-  <si>
     <t>0.175</t>
   </si>
   <si>
     <t>0.2</t>
   </si>
   <si>
-    <t>0.225</t>
-  </si>
-  <si>
-    <t>0.25</t>
-  </si>
-  <si>
     <t>0.275</t>
   </si>
   <si>
@@ -113,9 +104,6 @@
   </si>
   <si>
     <t>Rubber bands</t>
-  </si>
-  <si>
-    <t>dirty wheels</t>
   </si>
   <si>
     <t>Wheel Cond.</t>
@@ -612,10 +600,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{401A6925-87CE-DE4B-AEDE-0C59A855F78E}">
-  <dimension ref="A1:F46"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17:C26"/>
+    <sheetView tabSelected="1" zoomScale="69" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -629,58 +617,107 @@
   <sheetData>
     <row r="1" spans="1:6" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="3"/>
+    </row>
+    <row r="2" spans="1:6" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B3" s="1">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B4" s="1">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="3" t="s">
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B5" s="1">
+        <v>0</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B6" s="1">
+        <v>0</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="C2" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C3" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C4" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C5" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C6" s="1" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="B7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -688,13 +725,13 @@
         <v>0</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -702,13 +739,13 @@
         <v>0</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E9" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F9" s="1"/>
     </row>
@@ -717,28 +754,25 @@
         <v>0</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="B11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E11" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F11" s="1"/>
     </row>
@@ -750,10 +784,10 @@
         <v>2</v>
       </c>
       <c r="D12" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F12" s="1"/>
     </row>
@@ -764,26 +798,23 @@
       <c r="C13" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D13" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13" t="s">
-        <v>18</v>
-      </c>
       <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="B14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D14" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F14" s="1"/>
     </row>
@@ -795,208 +826,88 @@
         <v>2</v>
       </c>
       <c r="D15" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="B16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B17" s="1">
         <v>0</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D17" t="s">
         <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B18" s="1">
         <v>0</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D18" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>22</v>
-      </c>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="D19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B20" s="1">
         <v>0</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D20" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B21" s="1">
         <v>0</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D21" t="s">
-        <v>13</v>
-      </c>
-      <c r="E21" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B22" s="1">
-        <v>0</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D22" t="s">
-        <v>13</v>
-      </c>
-      <c r="E22" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B23" s="1">
-        <v>0</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D23" t="s">
-        <v>13</v>
-      </c>
-      <c r="E23" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B24" s="1">
-        <v>0</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D24" t="s">
-        <v>13</v>
-      </c>
-      <c r="E24" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B25" s="1">
-        <v>0</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D25" t="s">
-        <v>13</v>
-      </c>
-      <c r="E25" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B26" s="1">
-        <v>0</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D26" t="s">
-        <v>13</v>
-      </c>
-      <c r="E26" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="37" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C37" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="38" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C38" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="39" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C39" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="40" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C40" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="41" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C41" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C42" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C43" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C44" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="45" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C45" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="46" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C46" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1009,8 +920,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BB351C3-AC4F-1F4F-B8FC-8FAAD1194F6D}">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1024,19 +935,19 @@
   <sheetData>
     <row r="1" spans="1:5" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="E1" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="17" thickTop="1" x14ac:dyDescent="0.2">
@@ -1047,24 +958,24 @@
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B3" s="1">
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -1075,24 +986,24 @@
         <v>0</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E4" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B5" s="1">
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -1103,13 +1014,13 @@
         <v>0</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E6" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -1120,35 +1031,35 @@
         <v>0</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E7" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B8" s="1">
         <v>1</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B9" s="1">
         <v>1</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -1159,13 +1070,13 @@
         <v>0</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E10" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -1176,13 +1087,13 @@
         <v>0</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E11" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -1193,35 +1104,35 @@
         <v>0</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D12" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E12" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B13" s="1">
         <v>1</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B14" s="1">
         <v>1</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -1232,32 +1143,32 @@
         <v>0</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D15" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B16" s="1">
         <v>1</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B17" s="1">
         <v>1</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -1268,43 +1179,43 @@
         <v>0</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D18" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B19" s="1">
         <v>1</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B20" s="1">
         <v>1</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B21" s="1">
         <v>1</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
@@ -1315,10 +1226,10 @@
         <v>0</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D22" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
@@ -1329,10 +1240,10 @@
         <v>0</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D23" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
@@ -1343,10 +1254,10 @@
         <v>0</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D24" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
@@ -1357,13 +1268,13 @@
         <v>0</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D25" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E25" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
@@ -1374,13 +1285,13 @@
         <v>0</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D26" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E26" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
@@ -1391,10 +1302,10 @@
         <v>0</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D27" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
@@ -1405,13 +1316,13 @@
         <v>0</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D28" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E28" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
@@ -1422,10 +1333,10 @@
         <v>0</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D29" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
@@ -1436,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D30" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E30" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
@@ -1453,7 +1364,7 @@
         <v>1</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1479,10 +1390,10 @@
   <sheetData>
     <row r="1" spans="1:2" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17" thickTop="1" x14ac:dyDescent="0.2">
@@ -1490,7 +1401,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -1498,7 +1409,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -1506,7 +1417,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -1514,7 +1425,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -1522,7 +1433,7 @@
         <v>0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -1530,7 +1441,7 @@
         <v>0</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -1538,7 +1449,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -1546,7 +1457,7 @@
         <v>0</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -1554,7 +1465,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -1562,7 +1473,7 @@
         <v>0</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -1570,7 +1481,7 @@
         <v>1</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -1578,7 +1489,7 @@
         <v>1</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -1586,7 +1497,7 @@
         <v>1</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -1594,7 +1505,7 @@
         <v>1</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -1602,7 +1513,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -1610,7 +1521,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -1618,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -1626,7 +1537,7 @@
         <v>0</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -1634,7 +1545,7 @@
         <v>1</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
@@ -1642,7 +1553,7 @@
         <v>1</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
@@ -1650,7 +1561,7 @@
         <v>0</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
@@ -1658,7 +1569,7 @@
         <v>0</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
@@ -1666,7 +1577,7 @@
         <v>0</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
@@ -1674,7 +1585,7 @@
         <v>0</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
@@ -1682,7 +1593,7 @@
         <v>0</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
@@ -1690,7 +1601,7 @@
         <v>0</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
@@ -1698,7 +1609,7 @@
         <v>1</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
@@ -1706,7 +1617,7 @@
         <v>0</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
@@ -1714,7 +1625,7 @@
         <v>0</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
@@ -1722,7 +1633,7 @@
         <v>1</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
@@ -1730,7 +1641,7 @@
         <v>0</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.2">

--- a/search-and-rescue-data.xlsx
+++ b/search-and-rescue-data.xlsx
@@ -1,23 +1,59 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://syddanskuni-my.sharepoint.com/personal/paand22_student_sdu_dk/Documents/Kandidat-uddannelsen/Semester 1/Embodied AI/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/balling/projects/search_and_rescue/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="23" documentId="8_{9FF07D90-8A15-DD40-B302-C789E8418C2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C4EB4B41-C22F-8542-8D15-8CB8034C82A7}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8213AA2A-562B-E44F-9804-D47C1F3BEE70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17920" yWindow="500" windowWidth="17920" windowHeight="21880" xr2:uid="{3B429D3A-EB2F-A445-87C7-E08B16BA06FE}"/>
+    <workbookView xWindow="200" yWindow="700" windowWidth="38000" windowHeight="20680" activeTab="2" xr2:uid="{3B429D3A-EB2F-A445-87C7-E08B16BA06FE}"/>
   </bookViews>
   <sheets>
     <sheet name="dirty wheel" sheetId="1" r:id="rId1"/>
     <sheet name="Rene dæk" sheetId="3" r:id="rId2"/>
-    <sheet name="Ark2" sheetId="2" r:id="rId3"/>
+    <sheet name="Wheel condition" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">'Rene dæk'!$A$60</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'Rene dæk'!$A$61</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">'Rene dæk'!$B$61:$H$61</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">'Rene dæk'!$B$62:$H$62</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">'Rene dæk'!$B$60:$H$60</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">'Rene dæk'!$B$61:$H$61</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">'Rene dæk'!$B$62:$H$62</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">'Rene dæk'!$A$60</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">'Rene dæk'!$A$61</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">'Rene dæk'!$A$62</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">'Rene dæk'!$B$60:$H$60</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">'Rene dæk'!$B$61:$H$61</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">'Rene dæk'!$A$62</definedName>
+    <definedName name="_xlchart.v1.20" hidden="1">'Rene dæk'!$B$62:$H$62</definedName>
+    <definedName name="_xlchart.v1.21" hidden="1">'Rene dæk'!$A$60</definedName>
+    <definedName name="_xlchart.v1.22" hidden="1">'Rene dæk'!$A$61</definedName>
+    <definedName name="_xlchart.v1.23" hidden="1">'Rene dæk'!$A$62</definedName>
+    <definedName name="_xlchart.v1.24" hidden="1">'Rene dæk'!$B$60:$H$60</definedName>
+    <definedName name="_xlchart.v1.25" hidden="1">'Rene dæk'!$B$61:$H$61</definedName>
+    <definedName name="_xlchart.v1.26" hidden="1">'Rene dæk'!$B$62:$H$62</definedName>
+    <definedName name="_xlchart.v1.27" hidden="1">'Rene dæk'!$A$60</definedName>
+    <definedName name="_xlchart.v1.28" hidden="1">'Rene dæk'!$A$60:$A$62</definedName>
+    <definedName name="_xlchart.v1.29" hidden="1">'Rene dæk'!$A$61</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">'Rene dæk'!$B$60:$H$60</definedName>
+    <definedName name="_xlchart.v1.30" hidden="1">'Rene dæk'!$A$62</definedName>
+    <definedName name="_xlchart.v1.31" hidden="1">'Rene dæk'!$B$60:$H$60</definedName>
+    <definedName name="_xlchart.v1.32" hidden="1">'Rene dæk'!$B$61:$H$61</definedName>
+    <definedName name="_xlchart.v1.33" hidden="1">'Rene dæk'!$B$62:$H$62</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">'Rene dæk'!$B$61:$H$61</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">'Rene dæk'!$B$62:$H$62</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">'Rene dæk'!$A$60</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">'Rene dæk'!$A$61</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">'Rene dæk'!$A$62</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">'Rene dæk'!$B$60:$H$60</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,8 +73,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="47">
   <si>
     <t>Completed Run</t>
   </si>
@@ -106,9 +164,6 @@
     <t>Rubber bands</t>
   </si>
   <si>
-    <t>Wheel Cond.</t>
-  </si>
-  <si>
     <t>Clean wheels</t>
   </si>
   <si>
@@ -145,46 +200,43 @@
     <t>End of map - u turn</t>
   </si>
   <si>
-    <t>158.06</t>
-  </si>
-  <si>
     <t xml:space="preserve">Turned wrong direction and saw line </t>
-  </si>
-  <si>
-    <t>157.16</t>
-  </si>
-  <si>
-    <t>155.47</t>
-  </si>
-  <si>
-    <t>147.58</t>
   </si>
   <si>
     <t>Saw dotted line at first u turn</t>
   </si>
   <si>
-    <t>112.4</t>
-  </si>
-  <si>
-    <t>115.24</t>
-  </si>
-  <si>
     <t>can detect fail</t>
   </si>
   <si>
-    <t>119.64</t>
+    <t>Wheel type</t>
   </si>
   <si>
-    <t>107.07</t>
+    <t>Base Speed</t>
   </si>
   <si>
-    <t>108.34</t>
+    <t>Completed Runs</t>
   </si>
   <si>
-    <t>108.07</t>
+    <t>Average Run Time</t>
   </si>
   <si>
-    <t>115.15</t>
+    <t>Max Run Time</t>
+  </si>
+  <si>
+    <t>Min Run Time</t>
+  </si>
+  <si>
+    <t>T1</t>
+  </si>
+  <si>
+    <t>T2</t>
+  </si>
+  <si>
+    <t>T3</t>
+  </si>
+  <si>
+    <t>Wheel condiiton</t>
   </si>
 </sst>
 </file>
@@ -251,7 +303,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -265,10 +317,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
+    <cellStyle name="Heading 1" xfId="1" builtinId="16"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Overskrift 1" xfId="1" builtinId="16"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -283,8 +338,2715 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Successes on Base</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Speed - 10 Runs</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Rene dæk'!$A$40:$A$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.27500000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Rene dæk'!$B$40:$B$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-79BE-EB4E-BAD0-3BF8519ABB2F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1489946368"/>
+        <c:axId val="1447305088"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1489946368"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" b="1"/>
+                  <a:t>Base</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" b="1" baseline="0"/>
+                  <a:t> Speed (m/s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1447305088"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1447305088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" b="1"/>
+                  <a:t>Successes</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1489946368"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Successes on</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Ramp</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t> - 10 Runs</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Wheel condition'!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Success</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Wheel condition'!$A$3:$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Dirty wheels</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Clean wheels</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Rubber bands</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Wheel condition'!$B$3:$B$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-102B-2D42-8400-717919999971}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1443857280"/>
+        <c:axId val="1443856384"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1443857280"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" b="1"/>
+                  <a:t>Wheel</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" b="1" baseline="0"/>
+                  <a:t> Condition</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" b="1"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1443856384"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1443856384"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" b="1"/>
+                  <a:t>Successes</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1443857280"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f dir="row">_xlchart.v1.3</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:numDim type="val">
+        <cx:f dir="row">_xlchart.v1.4</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="2">
+      <cx:numDim type="val">
+        <cx:f dir="row">_xlchart.v1.5</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0"/>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{F3B5C8E2-48F7-F14D-A9E3-A53A3F465F46}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.0</cx:f>
+              <cx:v>T1</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{331216E0-FD93-A54B-99B2-C339E72F386A}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.1</cx:f>
+              <cx:v>T2</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="1"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{14CD7055-39F1-0C41-B11C-0E95BF4F76D1}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.2</cx:f>
+              <cx:v>T3</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="2"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="1"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1295400</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1803400</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AEC0AF10-44AE-45C5-8759-501C70AE1406}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3039534</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>160866</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>3716867</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>59266</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="8" name="Chart 7">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E94952B-1CDA-3F68-7DEE-47586626821D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="9355667" y="13453533"/>
+              <a:ext cx="4572000" cy="2743200"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1330872</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>197223</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>113858</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>11952</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6722A6B5-986A-3AE2-A232-6A06C61EBCF8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -602,8 +3364,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{401A6925-87CE-DE4B-AEDE-0C59A855F78E}">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="69" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView zoomScale="75" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -640,8 +3402,8 @@
       <c r="B2" s="1">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>1</v>
+      <c r="C2" s="1">
+        <v>0.17499999999999999</v>
       </c>
       <c r="D2" t="s">
         <v>10</v>
@@ -918,30 +3680,30 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BB351C3-AC4F-1F4F-B8FC-8FAAD1194F6D}">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:K70"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView zoomScale="75" workbookViewId="0">
+      <selection activeCell="D65" sqref="D65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="29.5" style="1" customWidth="1"/>
+    <col min="1" max="1" width="29.83203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="23.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="29.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="29.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="51" customWidth="1"/>
     <col min="5" max="5" width="64.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>5</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>8</v>
@@ -951,163 +3713,163 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
-        <v>0</v>
+      <c r="A2" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="B2" s="1">
         <v>0</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>25</v>
+      <c r="C2" s="1">
+        <v>0</v>
       </c>
       <c r="D2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" t="s">
         <v>30</v>
-      </c>
-      <c r="E2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="B3" s="1">
         <v>1</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>25</v>
+      <c r="C3" s="5">
+        <v>158.06</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
-        <v>0</v>
+      <c r="A4" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="B4" s="1">
         <v>0</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>25</v>
+      <c r="C4" s="1">
+        <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="B5" s="1">
         <v>1</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>25</v>
+      <c r="C5" s="5">
+        <v>157.16</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
-        <v>0</v>
+      <c r="A6" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="B6" s="1">
         <v>0</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>25</v>
+      <c r="C6" s="1">
+        <v>0</v>
       </c>
       <c r="D6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" t="s">
         <v>30</v>
       </c>
-      <c r="E6" t="s">
-        <v>31</v>
-      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
-        <v>0</v>
+      <c r="A7" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="B7" s="1">
         <v>0</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>25</v>
+      <c r="C7" s="1">
+        <v>0</v>
       </c>
       <c r="D7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" t="s">
         <v>30</v>
-      </c>
-      <c r="E7" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="B8" s="1">
         <v>1</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>25</v>
+      <c r="C8" s="5">
+        <v>155.47</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="B9" s="1">
         <v>1</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>25</v>
+      <c r="C9" s="5">
+        <v>147.58000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
-        <v>0</v>
+      <c r="A10" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="B10" s="1">
         <v>0</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>25</v>
+      <c r="C10" s="1">
+        <v>0</v>
       </c>
       <c r="D10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" t="s">
         <v>30</v>
       </c>
-      <c r="E10" t="s">
-        <v>31</v>
-      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
-        <v>0</v>
+      <c r="A11" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="B11" s="1">
         <v>0</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>25</v>
+      <c r="C11" s="1">
+        <v>0</v>
       </c>
       <c r="D11" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E11" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
-        <v>0</v>
+      <c r="A12" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="B12" s="1">
         <v>0</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>2</v>
+      <c r="C12" s="1">
+        <v>0</v>
       </c>
       <c r="D12" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E12" t="s">
         <v>16</v>
@@ -1115,554 +3877,803 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>41</v>
+        <v>2</v>
       </c>
       <c r="B13" s="1">
         <v>1</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>2</v>
+      <c r="C13" s="5">
+        <v>112.4</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>42</v>
+        <v>2</v>
       </c>
       <c r="B14" s="1">
         <v>1</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="5">
+        <v>115.24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
-        <v>0</v>
-      </c>
       <c r="B15" s="1">
         <v>0</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>2</v>
+      <c r="C15" s="1">
+        <v>0</v>
       </c>
       <c r="D15" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>44</v>
+        <v>2</v>
       </c>
       <c r="B16" s="1">
         <v>1</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="5">
+        <v>119.64</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="B17" s="1">
         <v>1</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="5">
+        <v>107.07</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="1">
-        <v>0</v>
-      </c>
       <c r="B18" s="1">
         <v>0</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="1">
+        <v>0</v>
+      </c>
+      <c r="D18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
         <v>2</v>
-      </c>
-      <c r="D18" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>46</v>
       </c>
       <c r="B19" s="1">
         <v>1</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="5">
+        <v>108.34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
-        <v>47</v>
       </c>
       <c r="B20" s="1">
         <v>1</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="5">
+        <v>108.07</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
-        <v>48</v>
       </c>
       <c r="B21" s="1">
         <v>1</v>
       </c>
-      <c r="C21" s="4" t="s">
-        <v>2</v>
+      <c r="C21" s="5">
+        <v>115.15</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="1">
-        <v>0</v>
+      <c r="A22" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="B22" s="1">
         <v>0</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" s="1">
+        <v>0</v>
+      </c>
+      <c r="D22" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D22" t="s">
+      <c r="B23" s="1">
+        <v>0</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0</v>
+      </c>
+      <c r="D23" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="1">
-        <v>0</v>
-      </c>
-      <c r="B23" s="1">
-        <v>0</v>
-      </c>
-      <c r="C23" s="1" t="s">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D23" t="s">
+      <c r="B24" s="1">
+        <v>0</v>
+      </c>
+      <c r="C24" s="1">
+        <v>0</v>
+      </c>
+      <c r="D24" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="1">
+        <v>0</v>
+      </c>
+      <c r="C25" s="1">
+        <v>0</v>
+      </c>
+      <c r="D25" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="1">
-        <v>0</v>
-      </c>
-      <c r="B24" s="1">
-        <v>0</v>
-      </c>
-      <c r="C24" s="1" t="s">
+      <c r="E25" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D24" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="1">
-        <v>0</v>
-      </c>
-      <c r="B25" s="1">
-        <v>0</v>
-      </c>
-      <c r="C25" s="1" t="s">
+      <c r="B26" s="1">
+        <v>0</v>
+      </c>
+      <c r="C26" s="1">
+        <v>0</v>
+      </c>
+      <c r="D26" t="s">
+        <v>29</v>
+      </c>
+      <c r="E26" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D25" t="s">
-        <v>28</v>
-      </c>
-      <c r="E25" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="1">
-        <v>0</v>
-      </c>
-      <c r="B26" s="1">
-        <v>0</v>
-      </c>
-      <c r="C26" s="1" t="s">
+      <c r="B27" s="1">
+        <v>0</v>
+      </c>
+      <c r="C27" s="1">
+        <v>0</v>
+      </c>
+      <c r="D27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D26" t="s">
+      <c r="B28" s="1">
+        <v>0</v>
+      </c>
+      <c r="C28" s="1">
+        <v>0</v>
+      </c>
+      <c r="D28" t="s">
+        <v>31</v>
+      </c>
+      <c r="E28" t="s">
         <v>30</v>
       </c>
-      <c r="E26" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="1">
-        <v>0</v>
-      </c>
-      <c r="B27" s="1">
-        <v>0</v>
-      </c>
-      <c r="C27" s="1" t="s">
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D27" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="1">
-        <v>0</v>
-      </c>
-      <c r="B28" s="1">
-        <v>0</v>
-      </c>
-      <c r="C28" s="1" t="s">
+      <c r="B29" s="1">
+        <v>0</v>
+      </c>
+      <c r="C29" s="1">
+        <v>0</v>
+      </c>
+      <c r="D29" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D28" t="s">
+      <c r="B30" s="1">
+        <v>0</v>
+      </c>
+      <c r="C30" s="1">
+        <v>0</v>
+      </c>
+      <c r="D30" t="s">
+        <v>33</v>
+      </c>
+      <c r="E30" t="s">
         <v>32</v>
       </c>
-      <c r="E28" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="1">
-        <v>0</v>
-      </c>
-      <c r="B29" s="1">
-        <v>0</v>
-      </c>
-      <c r="C29" s="1" t="s">
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="D29" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="1">
-        <v>0</v>
-      </c>
-      <c r="B30" s="1">
-        <v>0</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D30" t="s">
-        <v>34</v>
-      </c>
-      <c r="E30" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="1">
-        <v>107</v>
       </c>
       <c r="B31" s="1">
         <v>1</v>
       </c>
-      <c r="C31" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="C31" s="1">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" s="5">
+        <v>0.125</v>
+      </c>
+      <c r="B40" s="1">
+        <f>SUM(B2:B11)</f>
+        <v>4</v>
+      </c>
+      <c r="C40" s="1" cm="1">
+        <f t="array" ref="C40">MIN(IF(C2:C11&gt;0, C2:C11))</f>
+        <v>147.58000000000001</v>
+      </c>
+      <c r="D40">
+        <f>MAX(C2:C11)</f>
+        <v>158.06</v>
+      </c>
+      <c r="E40" s="1">
+        <f>AVERAGEIF(C2:C11,"&gt;0")</f>
+        <v>154.56750000000002</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="B41" s="1">
+        <f>SUM(B12:B21)</f>
+        <v>7</v>
+      </c>
+      <c r="C41" s="1" cm="1">
+        <f t="array" ref="C41">MIN(IF(C12:C21&gt;0, C12:C21))</f>
+        <v>107.07</v>
+      </c>
+      <c r="D41">
+        <f>MAX(C12:C21)</f>
+        <v>119.64</v>
+      </c>
+      <c r="E41" s="1">
+        <f>AVERAGEIF(C12:C21,"&gt;0")</f>
+        <v>112.27285714285713</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" s="5">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="B42" s="1">
+        <f>SUM(B22:B31)</f>
+        <v>1</v>
+      </c>
+      <c r="C42" s="1" cm="1">
+        <f t="array" ref="C42">MIN(IF(C22:C31&gt;0, C22:C31))</f>
+        <v>107</v>
+      </c>
+      <c r="D42">
+        <f>MAX(C22:C31)</f>
+        <v>107</v>
+      </c>
+      <c r="E42" s="1">
+        <f>AVERAGEIF(C22:C31,"&gt;0")</f>
+        <v>107</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A60" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B60" s="5">
+        <v>158.06</v>
+      </c>
+      <c r="C60" s="5">
+        <v>157.16</v>
+      </c>
+      <c r="D60" s="5">
+        <v>155.47</v>
+      </c>
+      <c r="E60" s="5">
+        <v>147.58000000000001</v>
+      </c>
+      <c r="F60" s="1" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G60" s="1" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H60" s="1" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I60" s="1"/>
+      <c r="J60" s="1"/>
+      <c r="K60" s="1"/>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A61" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B61" s="5">
+        <v>112.4</v>
+      </c>
+      <c r="C61" s="5">
+        <v>115.24</v>
+      </c>
+      <c r="D61" s="5">
+        <v>119.64</v>
+      </c>
+      <c r="E61" s="5">
+        <v>107.07</v>
+      </c>
+      <c r="F61" s="5">
+        <v>108.34</v>
+      </c>
+      <c r="G61" s="5">
+        <v>108.07</v>
+      </c>
+      <c r="H61" s="5">
+        <v>115.15</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A62" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B62" s="1">
+        <v>107</v>
+      </c>
+      <c r="C62" s="1" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D62" s="1" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E62" s="1" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F62" s="1" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G62" s="1" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H62" s="1" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B63" s="5"/>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C64" s="5"/>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C65" s="5"/>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C66" s="5"/>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A67" s="4"/>
+      <c r="C67" s="5"/>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A68" s="4"/>
+      <c r="C68" s="5"/>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A69" s="4"/>
+      <c r="C69" s="5"/>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A70" s="4"/>
+      <c r="C70" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DD236ED-8A72-4043-BDD7-9522FAFB542C}">
-  <dimension ref="A1:B38"/>
+  <dimension ref="A1:N54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="108" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24:B54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="22.5" customWidth="1"/>
-    <col min="2" max="2" width="25.83203125" customWidth="1"/>
-    <col min="3" max="3" width="29.5" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="1">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
+      <c r="B4" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" t="s">
+        <v>20</v>
+      </c>
+      <c r="M24" s="1"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="4">
+        <v>0</v>
+      </c>
+      <c r="M25" s="1"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26" s="4">
+        <v>0</v>
+      </c>
+      <c r="M26" s="1"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B27" s="4">
+        <v>0</v>
+      </c>
+      <c r="M27" s="1"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B28" s="4">
+        <v>0</v>
+      </c>
+      <c r="M28" s="1"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B29" s="4">
+        <v>0</v>
+      </c>
+      <c r="M29" s="1"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B30" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="M30" s="1"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B31" s="4">
+        <v>0</v>
+      </c>
+      <c r="M31" s="1"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B32" s="4">
+        <v>0</v>
+      </c>
+      <c r="M32" s="1"/>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B33" s="4">
+        <v>1</v>
+      </c>
+      <c r="M33" s="1"/>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B34" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B35" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B36" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B37" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B38" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B39" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B40" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B41" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B42" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B43" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B44" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
+      <c r="B45" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
+      <c r="B46" s="1">
         <v>1</v>
       </c>
-      <c r="B4" s="1" t="s">
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
+      <c r="B47" s="1">
         <v>1</v>
       </c>
-      <c r="B5" s="1" t="s">
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
-        <v>0</v>
-      </c>
-      <c r="B6" s="1" t="s">
+      <c r="B48" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
-        <v>0</v>
-      </c>
-      <c r="B7" s="1" t="s">
+      <c r="B49" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
+      <c r="B50" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B51" s="1">
         <v>1</v>
       </c>
-      <c r="B8" s="1" t="s">
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
-        <v>0</v>
-      </c>
-      <c r="B9" s="1" t="s">
+      <c r="B52" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
+      <c r="B53" s="1">
         <v>1</v>
       </c>
-      <c r="B10" s="1" t="s">
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
-        <v>0</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
-        <v>1</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
-        <v>1</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
-        <v>1</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
-        <v>1</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="1">
-        <v>1</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
-        <v>1</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="1">
-        <v>0</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="1">
-        <v>0</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="1">
-        <v>1</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="1">
-        <v>1</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="1">
-        <v>0</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="1">
-        <v>0</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="1">
-        <v>0</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="1">
-        <v>0</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="1">
-        <v>0</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="1">
-        <v>0</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="1">
-        <v>1</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" s="1">
-        <v>0</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" s="1">
-        <v>0</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" s="1">
-        <v>1</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" s="1">
-        <v>0</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B33" s="1"/>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B34" s="1"/>
-    </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B35" s="1"/>
-    </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B36" s="1"/>
-    </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B37" s="1"/>
-    </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B38" s="1"/>
+      <c r="B54" s="1">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>